--- a/updatetestcases/UpdateTestingDocument19Oct2015.xlsx
+++ b/updatetestcases/UpdateTestingDocument19Oct2015.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitscm\CS227Database\updatetestcases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
   </bookViews>
@@ -15,23 +10,20 @@
     <sheet name="SUMMARY" sheetId="11" r:id="rId1"/>
     <sheet name="Check Date Syntax" sheetId="9" r:id="rId2"/>
     <sheet name="SYNTAX" sheetId="8" r:id="rId3"/>
-    <sheet name="Check Tables_ColumnNames " sheetId="10" r:id="rId4"/>
+    <sheet name="TCN" sheetId="10" r:id="rId4"/>
     <sheet name="Customer" sheetId="2" r:id="rId5"/>
     <sheet name="Delivery" sheetId="5" r:id="rId6"/>
     <sheet name="Payment" sheetId="6" r:id="rId7"/>
     <sheet name="Product" sheetId="3" r:id="rId8"/>
     <sheet name="Si" sheetId="4" r:id="rId9"/>
-    <sheet name=" Intial Component Testing " sheetId="1" r:id="rId10"/>
+    <sheet name="Component" sheetId="1" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="389">
   <si>
     <t>Test Condition</t>
   </si>
@@ -1307,7 +1299,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1316,12 +1308,35 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> where first_name = 'ray' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>customers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> where first_name = 'ray' ;</t>
+      <t xml:space="preserve"> set l_name = 'roman' where first_name = 'ray' ;</t>
     </r>
   </si>
   <si>
@@ -1331,12 +1346,35 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>prodct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>customers</t>
+      <t xml:space="preserve"> set description = 'technology' WHERE stock &lt; '87' AND stock &gt; '80' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>is</t>
     </r>
     <r>
       <rPr>
@@ -1346,7 +1384,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> set l_name = 'roman' where first_name = 'ray' ;</t>
+      <t xml:space="preserve"> set price = '1999' WHERE product_id &lt; '70' OR product_id = '65' ;</t>
     </r>
   </si>
   <si>
@@ -1356,12 +1394,35 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>delvery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>prodct</t>
+      <t xml:space="preserve"> set delivery_cost = '2500', quantity = '50' WHERE si_id &lt; '100' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>pyment</t>
     </r>
     <r>
       <rPr>
@@ -1371,22 +1432,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> set description = 'technology' WHERE stock &lt; '87' AND stock &gt; '80' ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> set mode_of_payment = 'cash' WHERE mode_of_payment = 'none' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update customer set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>lname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>is</t>
+      <t xml:space="preserve"> = 'roman' where first_name = 'ray' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update customer set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>fname</t>
     </r>
     <r>
       <rPr>
@@ -1396,22 +1480,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> set price = '1999' WHERE product_id &lt; '70' OR product_id = '65' ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> = 'ray' where last_name = 'roman' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update customer set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>emails</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>delvery</t>
+      <t xml:space="preserve"> = 'a@gov.com' where last_name = 'roman' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update customer set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>bdate</t>
     </r>
     <r>
       <rPr>
@@ -1421,22 +1528,77 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> set delivery_cost = '2500', quantity = '50' WHERE si_id &lt; '100' ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> = '7-7-1999' where last_name = 'roman' ;</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Total Steps</t>
+  </si>
+  <si>
+    <t>Check Date Syntax</t>
+  </si>
+  <si>
+    <t>SYNTAX</t>
+  </si>
+  <si>
+    <t>Customer Table</t>
+  </si>
+  <si>
+    <t>Delivery Table</t>
+  </si>
+  <si>
+    <t>Payment Table</t>
+  </si>
+  <si>
+    <t>Product Table</t>
+  </si>
+  <si>
+    <t>Si Table</t>
+  </si>
+  <si>
+    <t>Grand TOTAL</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test Date:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>pyment</t>
+      <t xml:space="preserve"> October 17, 2015 and October 19, 2015</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE si SET price = 20000 WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 OR product_id = 3469 ;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test Date:</t>
     </r>
     <r>
       <rPr>
@@ -1446,8 +1608,62 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> set mode_of_payment = 'cash' WHERE mode_of_payment = 'none' ;</t>
-    </r>
+      <t xml:space="preserve"> October 16, 2015 and Ocober 19, 2015</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE si SET date_ordered = '9-2-2014' WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 AND product_id = 3469 ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = 1999 WHERE product_id &lt; 70 OR product_id = 65 ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET customer_id = 1001, date_ordered = '10-10-2015' WHERE product_id &lt; 500 AND price &lt; 4000 ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET product_id = 1111, price = 5850 WHERE customer_id &lt; 1000 ;</t>
+  </si>
+  <si>
+    <t>UPDATE product SET description = 'technology' WHERE stock &lt; 87 AND stock &gt; 80 ;</t>
+  </si>
+  <si>
+    <t>UPDATE product SET description = 'ability' WHERE weight != 0 OR weight &lt; 1 ;</t>
+  </si>
+  <si>
+    <t>UPDATE product SET model = '1960s', description = 'imagination' WHERE stock &lt; 30 ;</t>
+  </si>
+  <si>
+    <t>UPDATE product SET model = '1970s' WHERE  weight &gt; 30 AND stock &lt; 80 ;</t>
+  </si>
+  <si>
+    <t>UPDATE product SET weight = 25, model = '1980s' WHERE description = 'solution' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = 5500,mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment != '31-5-2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = 5500,mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment != '31-5-2014' OR date_of_payment = '14-7-2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = 4500 WHERE mode_of_payment = 'paypal' AND date_of_payment &lt; '30-7-2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET date_of_payment = '30-6-2014',amount = 7500 WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = 150,delivery_cost = 10000 WHERE delivery_date = '28-11-2015' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = 75,delivery_date = '30-11-2015' WHERE si_id &gt; 1000 AND delivery_cost &gt; 1000 ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = 75,delivery_date = '11-30-2015' WHERE si_id &gt; 1000 OR delivery_cost &lt; 10000 ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = 1500 WHERE quantity &lt; 10 ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = 2500, quantity = 50 WHERE si_id &lt; 100 ;</t>
   </si>
   <si>
     <r>
@@ -1456,12 +1672,35 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>cust_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>lname</t>
+      <t xml:space="preserve"> = 8  where last_name = 'roman' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update payment set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>pay_id</t>
     </r>
     <r>
       <rPr>
@@ -1471,22 +1710,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 'roman' where first_name = 'ray' ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update customer set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> = 100 where amount = 5000 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update payment set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>fname</t>
+      <t xml:space="preserve"> = 500 where amount = 5000 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update payment set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>amt</t>
     </r>
     <r>
       <rPr>
@@ -1496,22 +1758,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 'ray' where last_name = 'roman' ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update customer set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> = 5000  where payment_id = 100 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>update payment set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> paymentdate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>emails</t>
+      <t xml:space="preserve"> = '5-5-2015' where payment_id = 100 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update payment set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>paymentmode</t>
     </r>
     <r>
       <rPr>
@@ -1521,22 +1806,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 'a@gov.com' where last_name = 'roman' ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update customer set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> = 'credit card' where payment_id = 100 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update si set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>bdate</t>
+      <t xml:space="preserve"> = 1000 where price = 1500 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update si set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>cust_id</t>
     </r>
     <r>
       <rPr>
@@ -1546,58 +1854,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = '7-7-1999' where last_name = 'roman' ;</t>
-    </r>
-  </si>
-  <si>
-    <t>Test Cases</t>
-  </si>
-  <si>
-    <t>Total Steps</t>
-  </si>
-  <si>
-    <t>Check Date Syntax</t>
-  </si>
-  <si>
-    <t>SYNTAX</t>
-  </si>
-  <si>
-    <t>Check Tables_ColumnNames</t>
-  </si>
-  <si>
-    <t>Customer Table</t>
-  </si>
-  <si>
-    <t>Delivery Table</t>
-  </si>
-  <si>
-    <t>Payment Table</t>
-  </si>
-  <si>
-    <t>Product Table</t>
-  </si>
-  <si>
-    <t>Si Table</t>
-  </si>
-  <si>
-    <t>Intial Component Testing</t>
-  </si>
-  <si>
-    <t>Grand TOTAL</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Test Date:</t>
+      <t xml:space="preserve"> = 1000 where price = 1500 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update si set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>prod_id</t>
     </r>
     <r>
       <rPr>
@@ -1607,22 +1878,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> October 17, 2015 and October 19, 2015</t>
-    </r>
-  </si>
-  <si>
-    <t>UPDATE si SET price = 20000 WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 OR product_id = 3469 ;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Test Date:</t>
+      <t xml:space="preserve"> = 1000 where price = 1500 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update si set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>dateorder</t>
     </r>
     <r>
       <rPr>
@@ -1632,76 +1902,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> October 16, 2015 and Ocober 19, 2015</t>
-    </r>
-  </si>
-  <si>
-    <t>UPDATE si SET date_ordered = '9-2-2014' WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 AND product_id = 3469 ;</t>
-  </si>
-  <si>
-    <t>UPDATE si SET price = 1999 WHERE product_id &lt; 70 OR product_id = 65 ;</t>
-  </si>
-  <si>
-    <t>UPDATE si SET customer_id = 1001, date_ordered = '10-10-2015' WHERE product_id &lt; 500 AND price &lt; 4000 ;</t>
-  </si>
-  <si>
-    <t>UPDATE si SET product_id = 1111, price = 5850 WHERE customer_id &lt; 1000 ;</t>
-  </si>
-  <si>
-    <t>UPDATE product SET description = 'technology' WHERE stock &lt; 87 AND stock &gt; 80 ;</t>
-  </si>
-  <si>
-    <t>UPDATE product SET description = 'ability' WHERE weight != 0 OR weight &lt; 1 ;</t>
-  </si>
-  <si>
-    <t>UPDATE product SET model = '1960s', description = 'imagination' WHERE stock &lt; 30 ;</t>
-  </si>
-  <si>
-    <t>UPDATE product SET model = '1970s' WHERE  weight &gt; 30 AND stock &lt; 80 ;</t>
-  </si>
-  <si>
-    <t>UPDATE product SET weight = 25, model = '1980s' WHERE description = 'solution' ;</t>
-  </si>
-  <si>
-    <t>UPDATE payment SET amount = 5500,mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment != '31-5-2014' ;</t>
-  </si>
-  <si>
-    <t>UPDATE payment SET amount = 5500,mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment != '31-5-2014' OR date_of_payment = '14-7-2014' ;</t>
-  </si>
-  <si>
-    <t>UPDATE payment SET amount = 4500 WHERE mode_of_payment = 'paypal' AND date_of_payment &lt; '30-7-2014' ;</t>
-  </si>
-  <si>
-    <t>UPDATE payment SET date_of_payment = '30-6-2014',amount = 7500 WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET quantity = 150,delivery_cost = 10000 WHERE delivery_date = '28-11-2015' ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET quantity = 75,delivery_date = '30-11-2015' WHERE si_id &gt; 1000 AND delivery_cost &gt; 1000 ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET quantity = 75,delivery_date = '11-30-2015' WHERE si_id &gt; 1000 OR delivery_cost &lt; 10000 ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET delivery_cost = 1500 WHERE quantity &lt; 10 ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET delivery_cost = 2500, quantity = 50 WHERE si_id &lt; 100 ;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update customer set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> = '10-10-2010' where price = 1500 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update si set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>prices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cust_id</t>
+      <t xml:space="preserve"> = 1500 where si_id = 1000 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update product set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>p_id</t>
     </r>
     <r>
       <rPr>
@@ -1711,22 +1950,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 8  where last_name = 'roman' ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update payment set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> = 10 where weight = 350 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update product set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>product_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>pay_id</t>
+      <t xml:space="preserve"> = 'g9xafnhmex' where weight = 350 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update product set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>p_stock</t>
     </r>
     <r>
       <rPr>
@@ -1736,21 +1998,92 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 100 where amount = 5000 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update payment set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> = 10 where weight = 350 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update product set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>p_desc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> = 'technology' where weight = 350 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update product set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>p_weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 350 where model = '1960s' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update delivery set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>d_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 11111 where delivery_cost = 25000 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update delivery set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>sid</t>
     </r>
     <r>
@@ -1761,22 +2094,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 500 where amount = 5000 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update payment set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> = 10101 where delivery_cost = 25000 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update delivery set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>qty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>amt</t>
+      <t xml:space="preserve"> = 15 where delivery_cost = 25000 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update delivery set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>date</t>
     </r>
     <r>
       <rPr>
@@ -1786,22 +2142,48 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 5000  where payment_id = 100 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>update payment set</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> = '11-11-2015' where delivery_cost = 25000 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update delivery set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>cost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> paymentdate</t>
+      <t xml:space="preserve"> = 25000 where si_id = 10101 ;</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = 75,delivery_date = '22-11-2015' WHERE si_id &gt; 1000 AND delivery_cost &gt; 1000 ;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE delivery SET quantity = 75,delivery_date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>!=</t>
     </r>
     <r>
       <rPr>
@@ -1811,22 +2193,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = '5-5-2015' where payment_id = 100 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update payment set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> '30-11-2015' WHERE si_id &gt; 1000 AND delivery_cost &gt; 10000 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UPDATE delivery SET quantity = 75,delivery_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>paymentmode</t>
+      <t xml:space="preserve"> '30-11-2015' WHERE si_id &gt; 1000 AND delivery_cost &gt; 10000 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE delivery SET quantity = 75,delivery_date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
     </r>
     <r>
       <rPr>
@@ -1836,22 +2241,96 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 'credit card' where payment_id = 100 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update si set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> '30-11-2015' WHERE si_id &gt; 1000 AND delivery_cost &gt; 10000 ;</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = 150,delivery_cost = 10000 WHERE delivery_date &gt; '28-11-2015' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = 150,delivery_cost = 10000 WHERE delivery_date &lt; '28-11-2015' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = 75,delivery_date = '30-10-2015' WHERE delivery_date = '30-11-2015' OR delivery_cost != 5000 ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = 75,delivery_date = '30-10-2015' WHERE delivery_date &gt; '30-11-2015' OR delivery_cost != 7500 ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = 75,delivery_date = '30-10-2015' WHERE delivery_date &lt; '30-11-2015' OR delivery_cost != 10000 ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = 1500 WHERE quantity = 48 AND delivery_date = '12-11-2015' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = 1500 WHERE quantity = 48 AND delivery_date &gt; '12-11-2015' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = 1500 WHERE quantity = 48 AND delivery_date &lt; '12-11-2015' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = 2500, quantity = 50 WHERE si_id != 9245 OR delivery_date = '28-11-2015' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = 2500, quantity = 50 WHERE si_id != 9245 OR delivery_date &gt; '28-11-2015' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = 2500, quantity = 50 WHERE si_id != 9245 OR delivery_date &lt; '28-11-2015' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET date_of_payment = '6-30-2014',amount = 7500 WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = 5500,mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment &lt; '31-5-2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = 5500,mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment != '31-5-2014' OR date_of_payment &gt; '14-7-2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = 5500,mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment != '31-5-2014' OR date_of_payment &lt; '14-7-2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = 4500 WHERE mode_of_payment = 'paypal' AND date_of_payment != '30-7-2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE payment SET amount = 4500 WHERE mode_of_payment != 'paypal' AND date_of_payment != '30-7-2014' ;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE si SET date_ordered </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sid</t>
+      <t xml:space="preserve"> '9-2-2014' WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 AND product_id = 3469 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE si SET date_ordered </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1861,22 +2340,81 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 1000 where price = 1500 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update si set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> '9-2-2014' WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 AND product_id = 3469 ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE si SET date_ordered </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cust_id</t>
+      <t xml:space="preserve"> '9-2-2014' WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 AND product_id = 3469 ;</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE si SET price = 20000 WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 OR date_ordered != '25-05-2013' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = 20000 WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 OR date_ordered = '25-05-2013' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = 20000 WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 OR date_ordered &gt; '25-05-2013' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = 20000 WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 OR date_ordered &lt; '25-05-2013' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = 1999 WHERE product_id &lt; 70 OR date_ordered = '9-2-2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = 1999 WHERE product_id &lt; 70 OR date_ordered != '9-2-2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = 1999 WHERE product_id &lt; 70 OR date_ordered &gt; '9-2-2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET price = 1999 WHERE product_id &lt; 70 OR date_ordered &lt; '9-2-2014' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET customer_id = 1681, date_ordered = '23-07-2013' WHERE product_id &lt; 2000 AND date_ordered =  '27-06-2013' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET customer_id = 1681, date_ordered = '23-07-2013' WHERE product_id &lt; 2000 AND date_ordered !=  '27-06-2013' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET customer_id = 1681, date_ordered = '23-07-2013' WHERE product_id &lt; 2000 AND date_ordered &gt;  '27-06-2013' ;</t>
+  </si>
+  <si>
+    <t>UPDATE si SET customer_id = 1681, date_ordered = '23-07-2013' WHERE product_id &lt; 2000 AND date_ordered &lt;  '27-06-2013' ;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE payment SET date_of_payment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>!=</t>
     </r>
     <r>
       <rPr>
@@ -1886,22 +2424,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 1000 where price = 1500 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update si set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> '6-30-2014',amount = 7500 WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE payment SET date_of_payment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>prod_id</t>
+      <t xml:space="preserve"> '6-30-2014',amount = 7500 WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UPDATE payment SET date_of_payment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
     </r>
     <r>
       <rPr>
@@ -1911,623 +2472,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 1000 where price = 1500 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update si set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dateorder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = '10-10-2010' where price = 1500 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update si set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prices</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 1500 where si_id = 1000 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update product set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 10 where weight = 350 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update product set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>product_model</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 'g9xafnhmex' where weight = 350 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update product set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p_stock</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 10 where weight = 350 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update product set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p_desc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 'technology' where weight = 350 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update product set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p_weight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 350 where model = '1960s' ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update delivery set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 11111 where delivery_cost = 25000 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update delivery set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 10101 where delivery_cost = 25000 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update delivery set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>qty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 15 where delivery_cost = 25000 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update delivery set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = '11-11-2015' where delivery_cost = 25000 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update delivery set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cost</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 25000 where si_id = 10101 ;</t>
-    </r>
-  </si>
-  <si>
-    <t>UPDATE delivery SET quantity = 75,delivery_date = '22-11-2015' WHERE si_id &gt; 1000 AND delivery_cost &gt; 1000 ;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UPDATE delivery SET quantity = 75,delivery_date </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>!=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> '30-11-2015' WHERE si_id &gt; 1000 AND delivery_cost &gt; 10000 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>UPDATE delivery SET quantity = 75,delivery_date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> '30-11-2015' WHERE si_id &gt; 1000 AND delivery_cost &gt; 10000 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UPDATE delivery SET quantity = 75,delivery_date </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> '30-11-2015' WHERE si_id &gt; 1000 AND delivery_cost &gt; 10000 ;</t>
-    </r>
-  </si>
-  <si>
-    <t>UPDATE delivery SET quantity = 150,delivery_cost = 10000 WHERE delivery_date &gt; '28-11-2015' ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET quantity = 150,delivery_cost = 10000 WHERE delivery_date &lt; '28-11-2015' ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET quantity = 75,delivery_date = '30-10-2015' WHERE delivery_date = '30-11-2015' OR delivery_cost != 5000 ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET quantity = 75,delivery_date = '30-10-2015' WHERE delivery_date &gt; '30-11-2015' OR delivery_cost != 7500 ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET quantity = 75,delivery_date = '30-10-2015' WHERE delivery_date &lt; '30-11-2015' OR delivery_cost != 10000 ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET delivery_cost = 1500 WHERE quantity = 48 AND delivery_date = '12-11-2015' ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET delivery_cost = 1500 WHERE quantity = 48 AND delivery_date &gt; '12-11-2015' ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET delivery_cost = 1500 WHERE quantity = 48 AND delivery_date &lt; '12-11-2015' ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET delivery_cost = 2500, quantity = 50 WHERE si_id != 9245 OR delivery_date = '28-11-2015' ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET delivery_cost = 2500, quantity = 50 WHERE si_id != 9245 OR delivery_date &gt; '28-11-2015' ;</t>
-  </si>
-  <si>
-    <t>UPDATE delivery SET delivery_cost = 2500, quantity = 50 WHERE si_id != 9245 OR delivery_date &lt; '28-11-2015' ;</t>
-  </si>
-  <si>
-    <t>UPDATE payment SET date_of_payment = '6-30-2014',amount = 7500 WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
-  </si>
-  <si>
-    <t>UPDATE payment SET amount = 5500,mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment &lt; '31-5-2014' ;</t>
-  </si>
-  <si>
-    <t>UPDATE payment SET amount = 5500,mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment != '31-5-2014' OR date_of_payment &gt; '14-7-2014' ;</t>
-  </si>
-  <si>
-    <t>UPDATE payment SET amount = 5500,mode_of_payment = 'debit card' WHERE mode_of_payment = 'none' AND date_of_payment != '31-5-2014' OR date_of_payment &lt; '14-7-2014' ;</t>
-  </si>
-  <si>
-    <t>UPDATE payment SET amount = 4500 WHERE mode_of_payment = 'paypal' AND date_of_payment != '30-7-2014' ;</t>
-  </si>
-  <si>
-    <t>UPDATE payment SET amount = 4500 WHERE mode_of_payment != 'paypal' AND date_of_payment != '30-7-2014' ;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UPDATE si SET date_ordered </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>!=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> '9-2-2014' WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 AND product_id = 3469 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UPDATE si SET date_ordered </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> '9-2-2014' WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 AND product_id = 3469 ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UPDATE si SET date_ordered </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> '9-2-2014' WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 AND product_id = 3469 ;</t>
-    </r>
-  </si>
-  <si>
-    <t>UPDATE si SET price = 20000 WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 OR date_ordered != '25-05-2013' ;</t>
-  </si>
-  <si>
-    <t>UPDATE si SET price = 20000 WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 OR date_ordered = '25-05-2013' ;</t>
-  </si>
-  <si>
-    <t>UPDATE si SET price = 20000 WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 OR date_ordered &gt; '25-05-2013' ;</t>
-  </si>
-  <si>
-    <t>UPDATE si SET price = 20000 WHERE customer_id &lt; 4250 AND customer_id &gt; 4000 OR date_ordered &lt; '25-05-2013' ;</t>
-  </si>
-  <si>
-    <t>UPDATE si SET price = 1999 WHERE product_id &lt; 70 OR date_ordered = '9-2-2014' ;</t>
-  </si>
-  <si>
-    <t>UPDATE si SET price = 1999 WHERE product_id &lt; 70 OR date_ordered != '9-2-2014' ;</t>
-  </si>
-  <si>
-    <t>UPDATE si SET price = 1999 WHERE product_id &lt; 70 OR date_ordered &gt; '9-2-2014' ;</t>
-  </si>
-  <si>
-    <t>UPDATE si SET price = 1999 WHERE product_id &lt; 70 OR date_ordered &lt; '9-2-2014' ;</t>
-  </si>
-  <si>
-    <t>UPDATE si SET customer_id = 1681, date_ordered = '23-07-2013' WHERE product_id &lt; 2000 AND date_ordered =  '27-06-2013' ;</t>
-  </si>
-  <si>
-    <t>UPDATE si SET customer_id = 1681, date_ordered = '23-07-2013' WHERE product_id &lt; 2000 AND date_ordered !=  '27-06-2013' ;</t>
-  </si>
-  <si>
-    <t>UPDATE si SET customer_id = 1681, date_ordered = '23-07-2013' WHERE product_id &lt; 2000 AND date_ordered &gt;  '27-06-2013' ;</t>
-  </si>
-  <si>
-    <t>UPDATE si SET customer_id = 1681, date_ordered = '23-07-2013' WHERE product_id &lt; 2000 AND date_ordered &lt;  '27-06-2013' ;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UPDATE payment SET date_of_payment </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>!=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> '6-30-2014',amount = 7500 WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">UPDATE payment SET date_of_payment </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> '6-30-2014',amount = 7500 WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UPDATE payment SET date_of_payment </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> '6-30-2014',amount = 7500 WHERE mode_of_payment = 'bitcoin' OR mode_of_payment = 'lbc' ;</t>
-    </r>
-  </si>
-  <si>
     <t>informed Gladys</t>
   </si>
   <si>
@@ -2571,13 +2519,112 @@
   </si>
   <si>
     <t>Expected output is based on the given csv files</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET first_name='Wens', email='ako@ikaw.com' WHERE birthdate &gt; '16-12-2009';</t>
+  </si>
+  <si>
+    <t>Query OK, 413 Row(s) affected
+Row(s) matched: 413 Changed: 413</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET first_name='Wens', email='ako@ikaw.com' WHERE birthdate &gt; '1-12-2000' and birthdate &lt; '30-12-2011';</t>
+  </si>
+  <si>
+    <t>Query OK, 833 Row(s) affected
+Row(s) matched: 833 Changed: 833</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET first_name = 'Wens', email = 'ako@ikaw.com' WHERE last_name = 'Kai' and email = 'gatu@undopse.govM' ;</t>
+  </si>
+  <si>
+    <t>Record Not Found!</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET first_name = 'Wens', email = 'ako@ikaw.com' WHERE last_name = 'Kai' and email = 'gatu@undopse.gov' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 1 Row(s) affected
+Row(s) matched: 1 Changed: 1</t>
+  </si>
+  <si>
+    <t>update customer set first_name='wens' where last_name='navallo';</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET first_name = 'Wens2', birthdate = '9/9/1999' WHERE last_name = 'Kai' ;</t>
+  </si>
+  <si>
+    <t>Query OK, 23 Row(s) affected
+Row(s) matched: 23 Changed: 23</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET first_name='Wens', email='ako@ikaw.com' WHERE birthdate &gt; '31-12-2010';</t>
+  </si>
+  <si>
+    <t>Query OK, 350 Row(s) affected
+Row(s) matched: 350 Changed: 350</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET first_name='Wens', email='ako@ikaw.com' WHERE birthdate &lt; '1-1-1900';</t>
+  </si>
+  <si>
+    <t>Query OK, 381 Row(s) affected
+Row(s) matched: 381 Changed: 381</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET first_name='WENCESLAO', email='ako@ikaw.com' WHERE last_name = 'Adam' and birthdate &lt; '1-1-1900';</t>
+  </si>
+  <si>
+    <t>UPDATE customer SET first_name='WENCESLAO', email='ako@ikaw.com' WHERE first_name = 'Adam' and birthdate &lt; '1-1-1900';</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = '300',delivery_cost = '10000' WHERE delivery_date &gt; '1-1-2015' and delivery_date &lt; '30-1-2015'  and quantity &gt; 100;</t>
+  </si>
+  <si>
+    <t>Query OK, 756 Row(s) affected                                                                        Row(s) matched: 756 Changed: 756</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = '300',delivery_cost = '10000' WHERE delivery_date &gt; '1-1-2000' and delivery_date &lt; '30-1-2000' ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = '11111' WHERE delivery_date &gt; '1-1-2015' and delivery_date &lt; '30-1-2015'  and quantity &gt; 100 ;</t>
+  </si>
+  <si>
+    <t>Query OK, 458 Row(s) affected                                                                        Row(s) matched: 458 Changed: 458</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET delivery_cost = '11111' WHERE quantity &gt; 100 and quantity &lt; 110;</t>
+  </si>
+  <si>
+    <t>Query OK, 362 Row(s) affected                                                                        Row(s) matched: 362 Changed: 362</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = '333',delivery_cost = '33333' WHERE delivery_cost &gt; 10000 and delivery_cost &lt; 20000 ;</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = '333',delivery_cost = '33333' WHERE delivery_cost &gt; 1000 and delivery_cost &lt; 2000 ;</t>
+  </si>
+  <si>
+    <t>Query OK, 1003 Row(s) affected                                                                        Row(s) matched: 1003 Changed: 1003</t>
+  </si>
+  <si>
+    <t>Initial Component Testing</t>
+  </si>
+  <si>
+    <t>Check Tables and Column Names</t>
+  </si>
+  <si>
+    <t>UPDATE delivery SET quantity = 33,delivery_cost = 3333 WHERE delivery_cost != 1000 and delivery_cost &gt; 2000 ;</t>
+  </si>
+  <si>
+    <t>Query OK, 8881 Row(s) affected                                                                        Row(s) matched: 8881 Changed: 8881</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2648,14 +2695,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2663,18 +2709,16 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2690,12 +2734,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2727,7 +2765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2856,7 +2894,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2868,11 +2906,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2883,123 +2930,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="SUMMARY"/>
-      <sheetName val="Check Date Syntax"/>
-      <sheetName val="SYNTAX"/>
-      <sheetName val="Check Tables_ColumnNames"/>
-      <sheetName val="Customer"/>
-      <sheetName val="Delivery"/>
-      <sheetName val="Payment"/>
-      <sheetName val="Product"/>
-      <sheetName val="Si"/>
-      <sheetName val=" Intial Component Testing "/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="D3">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="3">
-          <cell r="D3">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="D3">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="3">
-          <cell r="D3">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="3">
-          <cell r="D3">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="3">
-          <cell r="D3">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="3">
-          <cell r="D3">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>3</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3257,22 +3188,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="38.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="37.140625" style="4" customWidth="1"/>
@@ -3280,45 +3211,45 @@
     <col min="9" max="9" width="32" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="2:5" ht="21">
+      <c r="B1" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="63"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
+      <c r="C2" s="65"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+    </row>
+    <row r="7" spans="2:5" ht="15.75">
       <c r="B7" s="58" t="s">
         <v>251</v>
       </c>
@@ -3332,16 +3263,16 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="59">
-        <f>'[1]Check Date Syntax'!D3</f>
+        <f ca="1">'Check Date Syntax'!D3</f>
         <v>64</v>
       </c>
-      <c r="D8" s="60">
-        <f>'[1]Check Date Syntax'!D4</f>
+      <c r="D8" s="64">
+        <f ca="1">'Check Date Syntax'!D4</f>
         <v>0</v>
       </c>
       <c r="E8" s="59">
@@ -3349,14 +3280,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C9" s="59">
+        <f ca="1">SYNTAX!D3</f>
         <v>25</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="64">
+        <f ca="1">SYNTAX!D4</f>
         <v>5</v>
       </c>
       <c r="E9" s="59">
@@ -3364,14 +3297,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>255</v>
+        <v>386</v>
       </c>
       <c r="C10" s="59">
+        <f ca="1">TCN!D3</f>
         <v>25</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="64">
+        <f ca="1">TCN!D4</f>
         <v>5</v>
       </c>
       <c r="E10" s="59">
@@ -3379,50 +3314,50 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" s="59">
-        <f>[1]Customer!D3</f>
-        <v>5</v>
-      </c>
-      <c r="D11" s="60">
-        <f>[1]Customer!D4</f>
+        <f ca="1">Customer!D3</f>
+        <v>15</v>
+      </c>
+      <c r="D11" s="64">
+        <f ca="1">Customer!D4</f>
         <v>0</v>
       </c>
       <c r="E11" s="59">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="59">
-        <f>[1]Delivery!D3</f>
-        <v>5</v>
-      </c>
-      <c r="D12" s="60">
-        <f>[1]Delivery!D4</f>
+        <f ca="1">Delivery!D3</f>
+        <v>12</v>
+      </c>
+      <c r="D12" s="64">
+        <f ca="1">Delivery!D4</f>
         <v>0</v>
       </c>
       <c r="E12" s="59">
         <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="59">
+        <f ca="1">Payment!D3</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="59">
-        <f>[1]Payment!D3</f>
-        <v>5</v>
-      </c>
-      <c r="D13" s="60">
-        <f>[1]Payment!D4</f>
+      <c r="D13" s="64">
+        <f ca="1">Payment!D4</f>
         <v>0</v>
       </c>
       <c r="E13" s="59">
@@ -3430,16 +3365,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C14" s="59">
-        <f>[1]Product!D3</f>
+        <f ca="1">Product!D3</f>
         <v>5</v>
       </c>
-      <c r="D14" s="60">
-        <f>[1]Product!D4</f>
+      <c r="D14" s="64">
+        <f ca="1">Product!D4</f>
         <v>0</v>
       </c>
       <c r="E14" s="59">
@@ -3447,16 +3382,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="59">
-        <f>[1]Si!D3</f>
+        <f ca="1">Si!D3</f>
         <v>5</v>
       </c>
-      <c r="D15" s="60">
-        <f>[1]Si!D4</f>
+      <c r="D15" s="64">
+        <f ca="1">Si!D4</f>
         <v>0</v>
       </c>
       <c r="E15" s="59">
@@ -3464,16 +3399,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5">
       <c r="B16" s="1" t="s">
-        <v>261</v>
+        <v>385</v>
       </c>
       <c r="C16" s="59">
-        <f>'[1] Intial Component Testing '!D3</f>
+        <f ca="1">Component!D3</f>
         <v>31</v>
       </c>
-      <c r="D16" s="60">
-        <f>'[1] Intial Component Testing '!D4</f>
+      <c r="D16" s="64">
+        <f ca="1">Component!D4</f>
         <v>3</v>
       </c>
       <c r="E16" s="59">
@@ -3481,13 +3416,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" s="61" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C17" s="59">
         <f>SUM(C8:C16)</f>
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D17" s="60">
         <f>SUM(D8:D16)</f>
@@ -3495,37 +3430,38 @@
       </c>
       <c r="E17" s="59">
         <f>SUM(E8:E16)</f>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -3533,12 +3469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
@@ -3547,28 +3485,28 @@
     <col min="5" max="5" width="32" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="B1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="65"/>
       <c r="E2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -3577,11 +3515,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3590,11 +3528,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
@@ -3603,11 +3541,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="12"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="45">
       <c r="A7" s="22" t="s">
         <v>50</v>
       </c>
@@ -3624,7 +3562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -3635,7 +3573,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -3649,10 +3587,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3663,7 +3601,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -3678,14 +3616,14 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="19"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -3696,7 +3634,7 @@
       <c r="D13" s="17"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -3711,7 +3649,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -3726,7 +3664,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -3741,7 +3679,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -3756,7 +3694,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -3771,14 +3709,14 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="19"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30">
       <c r="A20" s="2" t="s">
         <v>87</v>
       </c>
@@ -3789,7 +3727,7 @@
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -3804,7 +3742,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -3819,7 +3757,7 @@
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -3834,7 +3772,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -3849,7 +3787,7 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -3864,7 +3802,7 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -3879,7 +3817,7 @@
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="30">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -3894,7 +3832,7 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -3909,7 +3847,7 @@
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="30">
       <c r="A29" s="1">
         <v>9</v>
       </c>
@@ -3924,7 +3862,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="30">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -3939,7 +3877,7 @@
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30">
       <c r="A31" s="1">
         <v>11</v>
       </c>
@@ -3954,7 +3892,7 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="30">
       <c r="A32" s="1">
         <v>12</v>
       </c>
@@ -3969,7 +3907,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30">
       <c r="A33" s="1">
         <v>13</v>
       </c>
@@ -3984,7 +3922,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="1">
         <v>14</v>
       </c>
@@ -3999,7 +3937,7 @@
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="30">
       <c r="A35" s="1">
         <v>15</v>
       </c>
@@ -4014,7 +3952,7 @@
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="30">
       <c r="A36" s="1">
         <v>16</v>
       </c>
@@ -4029,7 +3967,7 @@
       </c>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="30">
       <c r="A37" s="1">
         <v>17</v>
       </c>
@@ -4044,7 +3982,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="30">
       <c r="A38" s="1">
         <v>18</v>
       </c>
@@ -4059,7 +3997,7 @@
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30">
       <c r="A39" s="1">
         <v>19</v>
       </c>
@@ -4074,7 +4012,7 @@
       </c>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30">
       <c r="A40" s="1">
         <v>20</v>
       </c>
@@ -4089,7 +4027,7 @@
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30">
       <c r="A41" s="1">
         <v>21</v>
       </c>
@@ -4104,7 +4042,7 @@
       </c>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="30">
       <c r="A42" s="1">
         <v>22</v>
       </c>
@@ -4119,7 +4057,7 @@
       </c>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="30">
       <c r="A43" s="1">
         <v>23</v>
       </c>
@@ -4134,7 +4072,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" s="1">
         <v>24</v>
       </c>
@@ -4149,7 +4087,7 @@
       </c>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="30">
       <c r="A45" s="1">
         <v>25</v>
       </c>
@@ -4164,14 +4102,14 @@
       </c>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="19"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="45">
       <c r="A47" s="48">
         <v>26</v>
       </c>
@@ -4185,17 +4123,17 @@
         <v>3</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="19"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="11">
         <v>27</v>
       </c>
@@ -4209,24 +4147,24 @@
         <v>3</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="19"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="19"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="11"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -4248,12 +4186,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
@@ -4262,28 +4200,28 @@
     <col min="5" max="5" width="32" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:7" ht="21">
+      <c r="B1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="65"/>
       <c r="E2" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -4292,11 +4230,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="A4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4305,11 +4243,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
@@ -4318,11 +4256,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="B6" s="12"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="45">
       <c r="A7" s="22" t="s">
         <v>50</v>
       </c>
@@ -4330,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>5</v>
@@ -4340,7 +4278,7 @@
       </c>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -4351,7 +4289,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:7" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="38" customFormat="1" ht="45">
       <c r="A9" s="20">
         <v>1</v>
       </c>
@@ -4366,7 +4304,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:7" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="38" customFormat="1" ht="45">
       <c r="A10" s="20">
         <v>2</v>
       </c>
@@ -4383,7 +4321,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="38" customFormat="1" ht="45">
       <c r="A11" s="20">
         <v>3</v>
       </c>
@@ -4400,7 +4338,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="38" customFormat="1" ht="45">
       <c r="A12" s="20">
         <v>4</v>
       </c>
@@ -4417,7 +4355,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="38" customFormat="1" ht="45">
       <c r="A13" s="20">
         <v>5</v>
       </c>
@@ -4432,7 +4370,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:7" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="38" customFormat="1" ht="45">
       <c r="A14" s="20">
         <v>6</v>
       </c>
@@ -4447,7 +4385,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:7" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="38" customFormat="1" ht="45">
       <c r="A15" s="20">
         <v>7</v>
       </c>
@@ -4462,7 +4400,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:7" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="38" customFormat="1" ht="45">
       <c r="A16" s="20">
         <v>8</v>
       </c>
@@ -4477,7 +4415,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A17" s="20">
         <v>9</v>
       </c>
@@ -4492,7 +4430,7 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A18" s="20">
         <v>10</v>
       </c>
@@ -4507,7 +4445,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A19" s="20">
         <v>11</v>
       </c>
@@ -4522,7 +4460,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A20" s="20">
         <v>12</v>
       </c>
@@ -4537,7 +4475,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A21" s="20">
         <v>13</v>
       </c>
@@ -4552,7 +4490,7 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A22" s="20">
         <v>14</v>
       </c>
@@ -4567,7 +4505,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A23" s="20">
         <v>15</v>
       </c>
@@ -4582,7 +4520,7 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A24" s="20">
         <v>16</v>
       </c>
@@ -4597,7 +4535,7 @@
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -4608,12 +4546,12 @@
       <c r="D25" s="17"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A26" s="43">
         <v>1</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>227</v>
@@ -4623,12 +4561,12 @@
       </c>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A27" s="43">
         <v>2</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>156</v>
@@ -4640,12 +4578,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A28" s="43">
         <v>3</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>148</v>
@@ -4657,12 +4595,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A29" s="43">
         <v>4</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>149</v>
@@ -4674,12 +4612,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="44" customFormat="1" ht="45">
       <c r="A30" s="43">
         <v>5</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>150</v>
@@ -4689,12 +4627,12 @@
       </c>
       <c r="E30" s="36"/>
     </row>
-    <row r="31" spans="1:5" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="46" customFormat="1" ht="45">
       <c r="A31" s="43">
         <v>6</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C31" s="36" t="s">
         <v>228</v>
@@ -4704,12 +4642,12 @@
       </c>
       <c r="E31" s="45"/>
     </row>
-    <row r="32" spans="1:5" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="46" customFormat="1" ht="45">
       <c r="A32" s="43">
         <v>7</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C32" s="36" t="s">
         <v>229</v>
@@ -4719,12 +4657,12 @@
       </c>
       <c r="E32" s="45"/>
     </row>
-    <row r="33" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A33" s="43">
         <v>8</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>85</v>
@@ -4734,12 +4672,12 @@
       </c>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A34" s="43">
         <v>9</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>85</v>
@@ -4749,12 +4687,12 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A35" s="43">
         <v>10</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>85</v>
@@ -4764,12 +4702,12 @@
       </c>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A36" s="43">
         <v>11</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>147</v>
@@ -4779,12 +4717,12 @@
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A37" s="43">
         <v>12</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>230</v>
@@ -4794,12 +4732,12 @@
       </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A38" s="43">
         <v>13</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>231</v>
@@ -4809,12 +4747,12 @@
       </c>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A39" s="43">
         <v>14</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>152</v>
@@ -4824,12 +4762,12 @@
       </c>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A40" s="43">
         <v>15</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>152</v>
@@ -4839,12 +4777,12 @@
       </c>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A41" s="43">
         <v>16</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>85</v>
@@ -4854,7 +4792,7 @@
       </c>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
@@ -4865,12 +4803,12 @@
       <c r="D42" s="17"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A43" s="20">
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>83</v>
@@ -4880,12 +4818,12 @@
       </c>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A44" s="20">
         <v>2</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>156</v>
@@ -4897,12 +4835,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A45" s="20">
         <v>3</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>148</v>
@@ -4914,12 +4852,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A46" s="20">
         <v>4</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>149</v>
@@ -4931,12 +4869,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A47" s="20">
         <v>5</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>204</v>
@@ -4946,12 +4884,12 @@
       </c>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A48" s="20">
         <v>6</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>205</v>
@@ -4961,12 +4899,12 @@
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:5" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="38" customFormat="1" ht="75">
       <c r="A49" s="20">
         <v>7</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>206</v>
@@ -4976,12 +4914,12 @@
       </c>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="38" customFormat="1" ht="75">
       <c r="A50" s="20">
         <v>8</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>206</v>
@@ -4991,12 +4929,12 @@
       </c>
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="1:5" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="38" customFormat="1" ht="75">
       <c r="A51" s="20">
         <v>9</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>85</v>
@@ -5006,7 +4944,7 @@
       </c>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A52" s="20">
         <v>10</v>
       </c>
@@ -5021,7 +4959,7 @@
       </c>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A53" s="20">
         <v>11</v>
       </c>
@@ -5036,7 +4974,7 @@
       </c>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A54" s="20">
         <v>12</v>
       </c>
@@ -5051,7 +4989,7 @@
       </c>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A55" s="20">
         <v>13</v>
       </c>
@@ -5066,12 +5004,12 @@
       </c>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A56" s="20">
         <v>14</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>155</v>
@@ -5081,12 +5019,12 @@
       </c>
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A57" s="20">
         <v>15</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>209</v>
@@ -5096,12 +5034,12 @@
       </c>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A58" s="20">
         <v>16</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>210</v>
@@ -5111,7 +5049,7 @@
       </c>
       <c r="E58" s="9"/>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>87</v>
       </c>
@@ -5122,12 +5060,12 @@
       <c r="D59" s="17"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A60" s="20">
         <v>1</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>81</v>
@@ -5137,12 +5075,12 @@
       </c>
       <c r="E60" s="9"/>
     </row>
-    <row r="61" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A61" s="20">
         <v>2</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>156</v>
@@ -5154,12 +5092,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A62" s="20">
         <v>3</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>148</v>
@@ -5171,12 +5109,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A63" s="20">
         <v>4</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>149</v>
@@ -5188,12 +5126,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A64" s="20">
         <v>5</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>211</v>
@@ -5203,12 +5141,12 @@
       </c>
       <c r="E64" s="9"/>
     </row>
-    <row r="65" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A65" s="20">
         <v>6</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>212</v>
@@ -5218,12 +5156,12 @@
       </c>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A66" s="20">
         <v>7</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>213</v>
@@ -5233,12 +5171,12 @@
       </c>
       <c r="E66" s="9"/>
     </row>
-    <row r="67" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A67" s="20">
         <v>8</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>214</v>
@@ -5248,12 +5186,12 @@
       </c>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A68" s="20">
         <v>9</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>215</v>
@@ -5263,12 +5201,12 @@
       </c>
       <c r="E68" s="9"/>
     </row>
-    <row r="69" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A69" s="20">
         <v>10</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>85</v>
@@ -5278,12 +5216,12 @@
       </c>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A70" s="20">
         <v>11</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>215</v>
@@ -5293,12 +5231,12 @@
       </c>
       <c r="E70" s="9"/>
     </row>
-    <row r="71" spans="1:5" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A71" s="20">
         <v>12</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>85</v>
@@ -5308,12 +5246,12 @@
       </c>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A72" s="20">
         <v>13</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>216</v>
@@ -5323,12 +5261,12 @@
       </c>
       <c r="E72" s="9"/>
     </row>
-    <row r="73" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A73" s="20">
         <v>14</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>217</v>
@@ -5338,12 +5276,12 @@
       </c>
       <c r="E73" s="9"/>
     </row>
-    <row r="74" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A74" s="20">
         <v>15</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>218</v>
@@ -5353,12 +5291,12 @@
       </c>
       <c r="E74" s="9"/>
     </row>
-    <row r="75" spans="1:5" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A75" s="20">
         <v>16</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>219</v>
@@ -5384,12 +5322,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
@@ -5398,28 +5336,28 @@
     <col min="5" max="5" width="32" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="B1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="65"/>
       <c r="E2" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -5428,11 +5366,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5441,11 +5379,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
@@ -5454,11 +5392,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="12"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="45">
       <c r="A7" s="22" t="s">
         <v>50</v>
       </c>
@@ -5466,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>5</v>
@@ -5475,7 +5413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5486,7 +5424,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="25" customFormat="1">
       <c r="A9" s="24">
         <v>1</v>
       </c>
@@ -5503,7 +5441,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -5514,7 +5452,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="57" customFormat="1" ht="30">
       <c r="A11" s="53">
         <v>1</v>
       </c>
@@ -5528,10 +5466,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -5548,7 +5486,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="57" customFormat="1" ht="30">
       <c r="A13" s="53">
         <v>3</v>
       </c>
@@ -5562,10 +5500,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="57" customFormat="1" ht="30">
       <c r="A14" s="53">
         <v>4</v>
       </c>
@@ -5579,10 +5517,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -5599,7 +5537,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -5616,7 +5554,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="32.25" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -5627,7 +5565,7 @@
       <c r="D17" s="17"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -5644,7 +5582,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -5661,7 +5599,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="51" customFormat="1" ht="30">
       <c r="A20" s="48">
         <v>3</v>
       </c>
@@ -5675,10 +5613,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="31" customFormat="1" ht="30">
       <c r="A21" s="28">
         <v>4</v>
       </c>
@@ -5692,10 +5630,10 @@
         <v>3</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="52" customFormat="1" ht="30">
       <c r="A22" s="24">
         <v>5</v>
       </c>
@@ -5712,7 +5650,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="52" customFormat="1" ht="30">
       <c r="A23" s="24">
         <v>6</v>
       </c>
@@ -5729,7 +5667,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="32">
         <v>7</v>
       </c>
@@ -5744,7 +5682,7 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -5759,7 +5697,7 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="32.25" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -5770,7 +5708,7 @@
       <c r="D26" s="17"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="45">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -5787,7 +5725,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -5804,7 +5742,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="45">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -5821,7 +5759,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="45">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -5838,7 +5776,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="45">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -5855,7 +5793,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="45">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -5872,7 +5810,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -5889,7 +5827,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -5906,7 +5844,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="45">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -5923,7 +5861,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="45">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -5940,7 +5878,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="45">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -5957,7 +5895,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="60">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -5974,7 +5912,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30">
       <c r="A39" s="1">
         <v>13</v>
       </c>
@@ -5991,7 +5929,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="45">
       <c r="A40" s="1">
         <v>14</v>
       </c>
@@ -6008,7 +5946,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30">
       <c r="A41" s="1">
         <v>15</v>
       </c>
@@ -6041,12 +5979,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
@@ -6055,28 +5993,28 @@
     <col min="5" max="5" width="32" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="B1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="65"/>
       <c r="E2" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -6085,11 +6023,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -6098,11 +6036,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
@@ -6111,11 +6049,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="12"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="45">
       <c r="A7" s="22" t="s">
         <v>50</v>
       </c>
@@ -6123,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>5</v>
@@ -6132,7 +6070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -6143,7 +6081,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -6157,10 +6095,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -6174,10 +6112,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -6191,10 +6129,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -6208,10 +6146,10 @@
         <v>3</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.5" customHeight="1">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -6225,17 +6163,17 @@
         <v>3</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="19"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -6246,7 +6184,7 @@
       <c r="D15" s="17"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -6263,7 +6201,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -6280,7 +6218,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -6297,7 +6235,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -6314,12 +6252,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30">
       <c r="A20" s="1">
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>13</v>
@@ -6331,7 +6269,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -6342,12 +6280,12 @@
       <c r="D21" s="17"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>14</v>
@@ -6359,12 +6297,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30">
       <c r="A23" s="1">
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>15</v>
@@ -6376,12 +6314,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="1">
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>16</v>
@@ -6393,12 +6331,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="1">
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>17</v>
@@ -6410,12 +6348,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30">
       <c r="A26" s="1">
         <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>18</v>
@@ -6427,7 +6365,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="30">
       <c r="A27" s="2" t="s">
         <v>87</v>
       </c>
@@ -6438,12 +6376,12 @@
       <c r="D27" s="17"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>19</v>
@@ -6455,12 +6393,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="30">
       <c r="A29" s="1">
         <v>2</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>20</v>
@@ -6472,12 +6410,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="30">
       <c r="A30" s="1">
         <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>21</v>
@@ -6489,12 +6427,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30">
       <c r="A31" s="1">
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>22</v>
@@ -6506,12 +6444,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="30">
       <c r="A32" s="1">
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>23</v>
@@ -6523,7 +6461,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30">
       <c r="A33" s="2" t="s">
         <v>138</v>
       </c>
@@ -6534,12 +6472,12 @@
       <c r="D33" s="17"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="1">
         <v>1</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>24</v>
@@ -6551,12 +6489,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="30">
       <c r="A35" s="1">
         <v>2</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>25</v>
@@ -6568,12 +6506,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="30">
       <c r="A36" s="1">
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>26</v>
@@ -6585,12 +6523,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="30">
       <c r="A37" s="1">
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>27</v>
@@ -6602,12 +6540,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="30">
       <c r="A38" s="1">
         <v>5</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>28</v>
@@ -6619,7 +6557,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30">
       <c r="A39" s="2" t="s">
         <v>139</v>
       </c>
@@ -6630,12 +6568,12 @@
       <c r="D39" s="17"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>29</v>
@@ -6647,12 +6585,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30">
       <c r="A41" s="1">
         <v>2</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>30</v>
@@ -6664,12 +6602,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="30">
       <c r="A42" s="1">
         <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>31</v>
@@ -6681,12 +6619,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="30">
       <c r="A43" s="1">
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>32</v>
@@ -6698,12 +6636,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" s="1">
         <v>5</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>33</v>
@@ -6717,12 +6655,13 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -6730,12 +6669,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
@@ -6744,67 +6683,67 @@
     <col min="5" max="5" width="32" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="B1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="65"/>
       <c r="E2" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="14">
-        <f>COUNTIF(D8:D46,"PASSED")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+        <f>COUNTIF(D8:D51,"PASSED")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="15">
-        <f>COUNTIF(D8:D48,"FAILED")</f>
+        <f>COUNTIF(D8:D53,"FAILED")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(D3:D4)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" s="12"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="45">
       <c r="A7" s="22" t="s">
         <v>50</v>
       </c>
@@ -6812,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>5</v>
@@ -6821,7 +6760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="20">
         <v>1</v>
       </c>
@@ -6836,7 +6775,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="25" customFormat="1" ht="45">
       <c r="A9" s="24">
         <v>2</v>
       </c>
@@ -6851,7 +6790,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -6866,7 +6805,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="60">
       <c r="A11" s="20">
         <v>4</v>
       </c>
@@ -6881,7 +6820,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="45">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -6896,50 +6835,155 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A13" s="20">
         <v>6</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B13" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" s="38" customFormat="1" ht="12" customHeight="1">
+      <c r="A14" s="20">
         <v>7</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" s="38" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="20">
         <v>8</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="B15" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" s="38" customFormat="1" ht="60">
+      <c r="A16" s="20">
         <v>9</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" s="38" customFormat="1" ht="30">
       <c r="A17" s="20">
         <v>10</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" s="38" customFormat="1" ht="45">
+      <c r="A18" s="20">
+        <v>11</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" s="38" customFormat="1" ht="45">
+      <c r="A19" s="20">
+        <v>12</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" s="38" customFormat="1" ht="45">
+      <c r="A20" s="20">
+        <v>13</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" s="38" customFormat="1" ht="60">
+      <c r="A21" s="20">
+        <v>14</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" s="38" customFormat="1" ht="75">
+      <c r="A22" s="20">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6956,12 +7000,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
@@ -6970,67 +7014,67 @@
     <col min="5" max="5" width="32" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="B1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="65"/>
       <c r="E2" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="14">
-        <f>COUNTIF(D8:D46,"PASSED")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+        <f>COUNTIF(D8:D47,"PASSED")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="15">
-        <f>COUNTIF(D8:D48,"FAILED")</f>
+        <f>COUNTIF(D8:D49,"FAILED")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(D3:D4)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" s="12"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="45">
       <c r="A7" s="22" t="s">
         <v>50</v>
       </c>
@@ -7038,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>5</v>
@@ -7047,12 +7091,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="20">
         <v>1</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>150</v>
@@ -7062,12 +7106,12 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="42" customFormat="1" ht="45">
       <c r="A9" s="41">
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>227</v>
@@ -7077,12 +7121,12 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>85</v>
@@ -7092,12 +7136,12 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="20">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>225</v>
@@ -7107,12 +7151,12 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>226</v>
@@ -7122,50 +7166,110 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="38" customFormat="1" ht="75">
       <c r="A13" s="20">
         <v>6</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" s="38" customFormat="1" ht="60">
       <c r="A15" s="20">
         <v>8</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" s="38" customFormat="1" ht="45">
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B16" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" s="38" customFormat="1" ht="60">
+      <c r="A17" s="20">
         <v>10</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" s="38" customFormat="1" ht="60">
+      <c r="A18" s="1">
+        <v>11</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="62"/>
+    </row>
+    <row r="19" spans="1:5" s="38" customFormat="1" ht="60">
+      <c r="A19" s="20">
+        <v>12</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7182,12 +7286,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
@@ -7196,28 +7300,28 @@
     <col min="5" max="5" width="32" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="B1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="65"/>
       <c r="E2" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -7226,11 +7330,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -7239,11 +7343,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
@@ -7252,11 +7356,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="12"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="45">
       <c r="A7" s="22" t="s">
         <v>50</v>
       </c>
@@ -7264,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>5</v>
@@ -7273,12 +7377,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="60">
       <c r="A8" s="20">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>204</v>
@@ -7288,12 +7392,12 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="25" customFormat="1" ht="75">
       <c r="A9" s="24">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>206</v>
@@ -7303,7 +7407,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="33" customHeight="1">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -7318,12 +7422,12 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="45">
       <c r="A11" s="20">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>209</v>
@@ -7333,12 +7437,12 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="60">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>83</v>
@@ -7348,7 +7452,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="20">
         <v>6</v>
       </c>
@@ -7357,7 +7461,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="12" customHeight="1">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -7366,7 +7470,7 @@
       <c r="D14" s="19"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="12" customHeight="1">
       <c r="A15" s="20">
         <v>8</v>
       </c>
@@ -7375,7 +7479,7 @@
       <c r="D15" s="19"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -7384,7 +7488,7 @@
       <c r="D16" s="19"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="20">
         <v>10</v>
       </c>
@@ -7408,12 +7512,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
@@ -7422,28 +7526,28 @@
     <col min="5" max="5" width="32" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="B1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="65"/>
       <c r="E2" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -7452,11 +7556,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -7465,11 +7569,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
@@ -7478,11 +7582,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="12"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="45">
       <c r="A7" s="22" t="s">
         <v>50</v>
       </c>
@@ -7490,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>5</v>
@@ -7499,12 +7603,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="20">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>84</v>
@@ -7514,12 +7618,12 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="25" customFormat="1" ht="30">
       <c r="A9" s="24">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>85</v>
@@ -7529,12 +7633,12 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>220</v>
@@ -7544,12 +7648,12 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="20">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>221</v>
@@ -7559,12 +7663,12 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>86</v>
@@ -7574,7 +7678,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="20">
         <v>6</v>
       </c>
@@ -7583,7 +7687,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="12" customHeight="1">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -7592,7 +7696,7 @@
       <c r="D14" s="19"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="12" customHeight="1">
       <c r="A15" s="20">
         <v>8</v>
       </c>
@@ -7601,7 +7705,7 @@
       <c r="D15" s="19"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -7610,7 +7714,7 @@
       <c r="D16" s="19"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="20">
         <v>10</v>
       </c>
@@ -7634,12 +7738,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
@@ -7648,28 +7752,28 @@
     <col min="5" max="5" width="32" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="B1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="65"/>
       <c r="E2" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -7678,11 +7782,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -7691,11 +7795,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
@@ -7704,11 +7808,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="12"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="45">
       <c r="A7" s="22" t="s">
         <v>50</v>
       </c>
@@ -7716,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>5</v>
@@ -7725,12 +7829,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="20">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>222</v>
@@ -7740,12 +7844,12 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="25" customFormat="1" ht="60">
       <c r="A9" s="24">
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>81</v>
@@ -7755,12 +7859,12 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>215</v>
@@ -7770,12 +7874,12 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="45">
       <c r="A11" s="20">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>223</v>
@@ -7785,12 +7889,12 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>224</v>
@@ -7800,7 +7904,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="20">
         <v>6</v>
       </c>
@@ -7809,7 +7913,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="12" customHeight="1">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -7818,7 +7922,7 @@
       <c r="D14" s="19"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="12" customHeight="1">
       <c r="A15" s="20">
         <v>8</v>
       </c>
@@ -7827,7 +7931,7 @@
       <c r="D15" s="19"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -7836,7 +7940,7 @@
       <c r="D16" s="19"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="20">
         <v>10</v>
       </c>
